--- a/public/uploads/template_batch_siswa.xlsx
+++ b/public/uploads/template_batch_siswa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Documents/ferdhika/project/digital interactive book/web-digital-interactive-book/public/uploads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6736C1-ED54-294A-A3DC-27466E6D6FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF5703C-4F49-774C-B99E-365C395F88CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14600" xr2:uid="{6EDC6305-9AC5-274D-AC28-53FA228A9819}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>Phone</t>
   </si>
@@ -253,6 +253,21 @@
       </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
+    <t>132131321</t>
+  </si>
+  <si>
+    <t>Suhendi</t>
+  </si>
+  <si>
+    <t>suhe022</t>
+  </si>
+  <si>
+    <t>suhe@cooo.co</t>
+  </si>
+  <si>
+    <t>TK</t>
   </si>
 </sst>
 </file>
@@ -637,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6FDDC6-1959-424F-928E-DC64C0BABDFE}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -775,6 +790,26 @@
         <v>23</v>
       </c>
     </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -782,6 +817,7 @@
     <hyperlink ref="D4" r:id="rId2" xr:uid="{E45BD911-28BD-384D-9CB5-CDA72D913AEF}"/>
     <hyperlink ref="D3" r:id="rId3" xr:uid="{F60AA287-0A09-8B4E-BE2F-F0B3C55FA39A}"/>
     <hyperlink ref="D5" r:id="rId4" xr:uid="{4E5B88D7-6CF9-724A-B250-DB5793F01726}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{E8EDD975-0952-024C-8B64-075384E89B05}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
